--- a/Datas/IPMVP_fact_typ.xlsx
+++ b/Datas/IPMVP_fact_typ.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacha.mailler\Desktop\GIT\OSFI\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOEMIE.BOISSEAU\Documents\GitHub\OSFI\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE55858-6EC7-44CF-A9CB-35BC1868F351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE62B5-8B4B-4C6B-AFD4-5CCE0F186E4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Mois</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>ESPACE NATUREL_fact_djf</t>
+  </si>
+  <si>
+    <t>BUREAU_use</t>
+  </si>
+  <si>
+    <t>BUREAU_fact_dju</t>
+  </si>
+  <si>
+    <t>BUREAU_fact_djf</t>
   </si>
 </sst>
 </file>
@@ -391,15 +400,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +429,17 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -426,8 +452,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -440,8 +475,17 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -454,8 +498,17 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,8 +521,17 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,8 +544,17 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,8 +567,17 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -510,8 +590,17 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -524,8 +613,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,8 +636,17 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -552,8 +659,17 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,8 +682,17 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -578,6 +703,15 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
     </row>
